--- a/simulation_data/two_step_algorithm/2s_error_level_4_percent_water_20.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_4_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.1507006993733</v>
+        <v>94.51003083843952</v>
       </c>
       <c r="D2" t="n">
-        <v>5.017375629506994</v>
+        <v>4.781646952004358</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.70987972349265</v>
+        <v>92.32583556153429</v>
       </c>
       <c r="D3" t="n">
-        <v>5.201838955222714</v>
+        <v>4.971989897214203</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.41339890644608</v>
+        <v>90.92999880857161</v>
       </c>
       <c r="D4" t="n">
-        <v>5.277094723906906</v>
+        <v>5.306772647335245</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.55485907183682</v>
+        <v>90.48298341863384</v>
       </c>
       <c r="D5" t="n">
-        <v>4.873025881644037</v>
+        <v>4.894097075994422</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>89.4481937197878</v>
+        <v>89.42410162313371</v>
       </c>
       <c r="D6" t="n">
-        <v>5.232697455155552</v>
+        <v>4.963560020394504</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>88.09665614521761</v>
+        <v>87.5685546844572</v>
       </c>
       <c r="D7" t="n">
-        <v>5.462197807435507</v>
+        <v>4.582468982612341</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>87.33339374399048</v>
+        <v>87.04920665178071</v>
       </c>
       <c r="D8" t="n">
-        <v>5.218476391192659</v>
+        <v>5.23546815263038</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.43091726386928</v>
+        <v>86.00792199887442</v>
       </c>
       <c r="D9" t="n">
-        <v>4.712717829134708</v>
+        <v>4.694479224062214</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.84034610443182</v>
+        <v>84.87116286218296</v>
       </c>
       <c r="D10" t="n">
-        <v>5.690646580108343</v>
+        <v>4.702312240934312</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>84.00872762266408</v>
+        <v>83.76171311273434</v>
       </c>
       <c r="D11" t="n">
-        <v>4.937850312354921</v>
+        <v>5.315513572701564</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>81.99445760358076</v>
+        <v>82.62092966215744</v>
       </c>
       <c r="D12" t="n">
-        <v>5.191631279198499</v>
+        <v>4.68398148248095</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.80416739738035</v>
+        <v>81.84653424860755</v>
       </c>
       <c r="D13" t="n">
-        <v>5.712750632310642</v>
+        <v>5.032232662409605</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.4760509719525</v>
+        <v>80.2957596155432</v>
       </c>
       <c r="D14" t="n">
-        <v>5.295851495537545</v>
+        <v>4.647646245081816</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.87760103357009</v>
+        <v>80.11180334404979</v>
       </c>
       <c r="D15" t="n">
-        <v>4.825216251256172</v>
+        <v>5.345463495455047</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.18165118273697</v>
+        <v>78.10549084713938</v>
       </c>
       <c r="D16" t="n">
-        <v>4.947104631108202</v>
+        <v>4.70750173395282</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.02025783773509</v>
+        <v>77.20791120651853</v>
       </c>
       <c r="D17" t="n">
-        <v>5.321190908905239</v>
+        <v>4.889065691069757</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.24037673553261</v>
+        <v>76.85623610339796</v>
       </c>
       <c r="D18" t="n">
-        <v>5.472445313615244</v>
+        <v>5.314801652295726</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.96999356764609</v>
+        <v>74.78915332435594</v>
       </c>
       <c r="D19" t="n">
-        <v>5.097014680601019</v>
+        <v>4.509544422657062</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>74.2130720234799</v>
+        <v>74.33640302630283</v>
       </c>
       <c r="D20" t="n">
-        <v>5.500007388597342</v>
+        <v>5.171470512807505</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>73.59416615266248</v>
+        <v>71.69692153253031</v>
       </c>
       <c r="D21" t="n">
-        <v>5.009507377045245</v>
+        <v>4.568592864808113</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>72.09674083848148</v>
+        <v>71.58486680620892</v>
       </c>
       <c r="D22" t="n">
-        <v>4.698726519734569</v>
+        <v>5.29612789436718</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>71.1324813572605</v>
+        <v>70.10738650698639</v>
       </c>
       <c r="D23" t="n">
-        <v>4.987596841977422</v>
+        <v>4.61097860210714</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>70.32411937376477</v>
+        <v>69.04406402648759</v>
       </c>
       <c r="D24" t="n">
-        <v>5.753332360334672</v>
+        <v>4.831918730398082</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.68103760584285</v>
+        <v>68.52078402917806</v>
       </c>
       <c r="D25" t="n">
-        <v>5.242256190032133</v>
+        <v>4.923258962622511</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.42658750156767</v>
+        <v>67.03101419967794</v>
       </c>
       <c r="D26" t="n">
-        <v>5.442184471102834</v>
+        <v>4.581542304587376</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.56032443158361</v>
+        <v>65.87087718899471</v>
       </c>
       <c r="D27" t="n">
-        <v>5.026350229864592</v>
+        <v>5.555220905678137</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>66.05142134625535</v>
+        <v>65.99051854680386</v>
       </c>
       <c r="D28" t="n">
-        <v>5.336689602400622</v>
+        <v>5.023003341795751</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.87370792096694</v>
+        <v>63.8733136603656</v>
       </c>
       <c r="D29" t="n">
-        <v>5.020456258428193</v>
+        <v>4.931413006777442</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>64.24047403995975</v>
+        <v>63.6161012032609</v>
       </c>
       <c r="D30" t="n">
-        <v>5.256520921566044</v>
+        <v>4.650848657745343</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.95138471310586</v>
+        <v>62.44357030166799</v>
       </c>
       <c r="D31" t="n">
-        <v>5.085017357844761</v>
+        <v>5.13656551127771</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.24009387785065</v>
+        <v>61.30934664589613</v>
       </c>
       <c r="D32" t="n">
-        <v>5.062113026482094</v>
+        <v>5.132645791498255</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.69462934478319</v>
+        <v>59.56616623924386</v>
       </c>
       <c r="D33" t="n">
-        <v>5.243843401421372</v>
+        <v>4.422623496736018</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.47693384527878</v>
+        <v>59.71177153589919</v>
       </c>
       <c r="D34" t="n">
-        <v>4.570772838188038</v>
+        <v>5.073970393366111</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.60944368672927</v>
+        <v>57.34420992725446</v>
       </c>
       <c r="D35" t="n">
-        <v>5.232385279092849</v>
+        <v>4.253761830620478</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.19196077977308</v>
+        <v>57.52007134431287</v>
       </c>
       <c r="D36" t="n">
-        <v>4.533241610529418</v>
+        <v>4.551468297524788</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.98867590495465</v>
+        <v>55.43072094834248</v>
       </c>
       <c r="D37" t="n">
-        <v>4.828950273587959</v>
+        <v>4.82276926179433</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.78881063753731</v>
+        <v>54.73787845125636</v>
       </c>
       <c r="D38" t="n">
-        <v>4.861061424641202</v>
+        <v>4.472615388953356</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.86414087132233</v>
+        <v>53.14428530183249</v>
       </c>
       <c r="D39" t="n">
-        <v>4.616866185108005</v>
+        <v>5.091826502314382</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.67149556694505</v>
+        <v>51.85508090306092</v>
       </c>
       <c r="D40" t="n">
-        <v>5.465244470701553</v>
+        <v>4.68177440659886</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.66308745694515</v>
+        <v>51.992103515453</v>
       </c>
       <c r="D41" t="n">
-        <v>4.707350030424319</v>
+        <v>4.651603109372071</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.58634797118447</v>
+        <v>50.20662496689464</v>
       </c>
       <c r="D42" t="n">
-        <v>5.22822697408125</v>
+        <v>4.869716781927398</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.38612376950046</v>
+        <v>49.33442469524517</v>
       </c>
       <c r="D43" t="n">
-        <v>5.084112392243711</v>
+        <v>4.388082421110221</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.88556873628534</v>
+        <v>49.7465669329939</v>
       </c>
       <c r="D44" t="n">
-        <v>4.583599483509234</v>
+        <v>5.711873405329979</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.50454502707514</v>
+        <v>47.60745050587585</v>
       </c>
       <c r="D45" t="n">
-        <v>5.388824860244556</v>
+        <v>4.938431105698099</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97413792631479</v>
+        <v>45.85983946035081</v>
       </c>
       <c r="D46" t="n">
-        <v>5.236187400407698</v>
+        <v>4.694571582110447</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.4385222355885</v>
+        <v>44.96294303196997</v>
       </c>
       <c r="D47" t="n">
-        <v>4.895929284930301</v>
+        <v>4.759267264735413</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>45.00255807462222</v>
+        <v>43.38154512482245</v>
       </c>
       <c r="D48" t="n">
-        <v>4.719386018122139</v>
+        <v>4.785043016441597</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.44615076696712</v>
+        <v>42.4385734756937</v>
       </c>
       <c r="D49" t="n">
-        <v>5.480343801021495</v>
+        <v>4.463961278068981</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>43.30896882967282</v>
+        <v>42.69244817686637</v>
       </c>
       <c r="D50" t="n">
-        <v>5.082254651814431</v>
+        <v>4.497859728339126</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.53024201446956</v>
+        <v>41.73288378250115</v>
       </c>
       <c r="D51" t="n">
-        <v>4.9372487236011</v>
+        <v>5.012753841782121</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.80495325946845</v>
+        <v>40.2398180660987</v>
       </c>
       <c r="D52" t="n">
-        <v>5.085286158595728</v>
+        <v>5.069902743020239</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.42154460078866</v>
+        <v>39.98926306262312</v>
       </c>
       <c r="D53" t="n">
-        <v>4.807971610305799</v>
+        <v>5.000327706703473</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.75839458563054</v>
+        <v>37.44278193533956</v>
       </c>
       <c r="D54" t="n">
-        <v>4.958720966376603</v>
+        <v>5.584174816006314</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.59756383474328</v>
+        <v>36.67129417395407</v>
       </c>
       <c r="D55" t="n">
-        <v>3.786366537307205</v>
+        <v>4.712224945596621</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.59015561152327</v>
+        <v>35.59954462907584</v>
       </c>
       <c r="D56" t="n">
-        <v>4.353596216650236</v>
+        <v>5.021614088604709</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.59475359530449</v>
+        <v>35.81246434216438</v>
       </c>
       <c r="D57" t="n">
-        <v>4.552122639188163</v>
+        <v>5.725632002020329</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.15400028958184</v>
+        <v>35.0059681830441</v>
       </c>
       <c r="D58" t="n">
-        <v>5.101991658745384</v>
+        <v>4.913072227617891</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.71649292619944</v>
+        <v>33.45284411032669</v>
       </c>
       <c r="D59" t="n">
-        <v>4.900535405625308</v>
+        <v>4.943043996336121</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.24918160298683</v>
+        <v>32.24691765767363</v>
       </c>
       <c r="D60" t="n">
-        <v>5.085546703686891</v>
+        <v>5.254065361724858</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.95375090686913</v>
+        <v>30.77754229371937</v>
       </c>
       <c r="D61" t="n">
-        <v>5.377773127432029</v>
+        <v>4.569521710990084</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.23638479712555</v>
+        <v>29.65480341466682</v>
       </c>
       <c r="D62" t="n">
-        <v>4.959512627715895</v>
+        <v>4.467402078378999</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.89489692586777</v>
+        <v>29.00211281368349</v>
       </c>
       <c r="D63" t="n">
-        <v>4.586159834657637</v>
+        <v>4.698911323910089</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.6663427850115</v>
+        <v>28.06099423018465</v>
       </c>
       <c r="D64" t="n">
-        <v>4.684753905052596</v>
+        <v>5.048815405545626</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.3479890445124</v>
+        <v>27.70492421156311</v>
       </c>
       <c r="D65" t="n">
-        <v>5.109498424199571</v>
+        <v>4.653316444355892</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.52855160541152</v>
+        <v>26.35185353752451</v>
       </c>
       <c r="D66" t="n">
-        <v>5.190798568365112</v>
+        <v>4.868856958483711</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.5891852793835</v>
+        <v>25.1533320613483</v>
       </c>
       <c r="D67" t="n">
-        <v>5.450144613234146</v>
+        <v>4.517784598158595</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.8032900643593</v>
+        <v>23.72797080389313</v>
       </c>
       <c r="D68" t="n">
-        <v>4.824567562439476</v>
+        <v>4.781978521844238</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.83170701911286</v>
+        <v>23.138437278003</v>
       </c>
       <c r="D69" t="n">
-        <v>5.204151233863791</v>
+        <v>5.18269549951421</v>
       </c>
     </row>
   </sheetData>
